--- a/eagle/Orange-Pi-Zero/RS232/zero_board-BOM.xlsx
+++ b/eagle/Orange-Pi-Zero/RS232/zero_board-BOM.xlsx
@@ -11,7 +11,7 @@
     <sheet name="RS232" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">RS232!$B$1:$B$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">RS232!$B$1:$B$9</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t xml:space="preserve">Qty</t>
   </si>
@@ -37,80 +37,75 @@
     <t xml:space="preserve">Comment</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">LCSC Part #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">optional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">LED1, LED2</t>
+    <t xml:space="preserve">LCSC Part #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED1, LED3, LED5</t>
   </si>
   <si>
     <t xml:space="preserve">CHIP-LED0603</t>
   </si>
   <si>
-    <t xml:space="preserve">LED GREEN 0603 SMD</t>
+    <t xml:space="preserve">LED GREEN 0603</t>
   </si>
   <si>
     <t xml:space="preserve">C72043</t>
   </si>
   <si>
+    <t xml:space="preserve">LED2, LED4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED RED 0603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C72044</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1, C2, C3, C4, C5</t>
   </si>
   <si>
     <t xml:space="preserve">C0603</t>
   </si>
   <si>
-    <t xml:space="preserve">CAP CER 0.1UF 16V X5R 0603</t>
+    <t xml:space="preserve">CAP CER 0.1UF 16V X5R</t>
   </si>
   <si>
     <t xml:space="preserve">C14663</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R2, R3 </t>
+    <t xml:space="preserve">R1, R2, R3, R6, R7, R8</t>
   </si>
   <si>
     <t xml:space="preserve">R0603</t>
   </si>
   <si>
-    <t xml:space="preserve">RES SMD 1K OHM 1% 1/10W 0603</t>
+    <t xml:space="preserve">1K 1% 1/10W</t>
   </si>
   <si>
     <t xml:space="preserve">C21190</t>
   </si>
   <si>
+    <t xml:space="preserve">R4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10K 1% 1/10W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47K 1% 1/10W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25792</t>
+  </si>
+  <si>
     <t xml:space="preserve">U1</t>
   </si>
   <si>
@@ -121,6 +116,30 @@
   </si>
   <si>
     <t xml:space="preserve">C45843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-6L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMMT5401-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C154733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMG2305UX-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C144153</t>
   </si>
 </sst>
 </file>
@@ -130,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,12 +175,6 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -252,23 +265,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -306,76 +318,158 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="0" t="s">
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
